--- a/wash_P/RSA.xlsx
+++ b/wash_P/RSA.xlsx
@@ -71948,7 +71948,7 @@
         <v>0</v>
       </c>
       <c r="GY23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GZ23" t="n">
         <v>0</v>
@@ -80007,7 +80007,7 @@
         <v>0</v>
       </c>
       <c r="AEB25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AEC25" t="n">
         <v>0</v>
